--- a/scripts/hk_estimates/hk_estimates_ed_from_py_output.xlsx
+++ b/scripts/hk_estimates/hk_estimates_ed_from_py_output.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GSP\sv\model\update_2024\scripts\hk_estimates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7B02643-159F-4D56-B7D3-D30E05099659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DBA79E-0B7A-4D1B-ACA5-DFAF266D8923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>Son0129</t>
+  </si>
+  <si>
+    <t>keep</t>
   </si>
 </sst>
 </file>
@@ -265,15 +268,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -296,13 +305,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -609,19 +636,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG10"/>
+  <dimension ref="A1:AH10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+      <selection activeCell="AH7" sqref="AH7:AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -718,8 +746,11 @@
       <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" s="4" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -789,8 +820,11 @@
       <c r="AG2">
         <v>0.3665020549907404</v>
       </c>
+      <c r="AH2" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -860,8 +894,11 @@
       <c r="AG3">
         <v>1.6919000660085431E-2</v>
       </c>
+      <c r="AH3" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -931,8 +968,11 @@
       <c r="AG4">
         <v>0.1107064157966553</v>
       </c>
+      <c r="AH4" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1017,79 +1057,85 @@
       <c r="AG5">
         <v>4.1241343576628219E-3</v>
       </c>
+      <c r="AH5" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>3.3050000000000002</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>3.3050000000000002</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="3">
         <v>6430405.1259736419</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="3">
         <v>1871198.2675766479</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="3">
         <v>123</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="3">
         <v>50</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="3">
         <v>5</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="3">
         <v>5</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="3">
         <v>-402.5</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="3">
         <v>-602.5</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="3">
         <v>-14</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="3">
         <v>-114</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="3">
         <v>-128.6000061035156</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="3">
         <v>-243.8999938964844</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="3">
         <v>-366.39999389648438</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="3">
         <v>0</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="3">
         <v>1000</v>
       </c>
+      <c r="AH6" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1177,8 +1223,11 @@
       <c r="AG7">
         <v>5.2271805088179686E-4</v>
       </c>
+      <c r="AH7" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1257,8 +1306,11 @@
       <c r="AG8">
         <v>0.1175016164004742</v>
       </c>
+      <c r="AH8" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1337,8 +1389,11 @@
       <c r="AG9">
         <v>4.4311171103076863E-2</v>
       </c>
+      <c r="AH9" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1416,6 +1471,9 @@
       </c>
       <c r="AG10">
         <v>0.65846183091246502</v>
+      </c>
+      <c r="AH10" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
